--- a/asrt_motor/sequences/init_random_sequence_file_list.xlsx
+++ b/asrt_motor/sequences/init_random_sequence_file_list.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sequences/867746_initial_random.csv</t>
+          <t>sequences/278857_initial_random.csv</t>
         </is>
       </c>
     </row>
